--- a/core/assets/levels/tut3.xlsx
+++ b/core/assets/levels/tut3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE29EBB-006B-4609-A3CF-6BA17FD96D23}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BCDFDB-D33A-4F53-A346-D8C69603C55B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Region</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>Gnome</t>
   </si>
   <si>
     <t>Padding between enemies:</t>
@@ -288,6 +285,12 @@
   </si>
   <si>
     <t>Which blocks to use</t>
+  </si>
+  <si>
+    <t>gnome</t>
+  </si>
+  <si>
+    <t>rear enemy</t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -760,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -788,9 +791,14 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
       <c r="I2" s="11"/>
       <c r="J2" s="2"/>
     </row>
@@ -800,35 +808,34 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="G3" s="11" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="G4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="G4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -836,7 +843,7 @@
       <c r="D5" s="9"/>
       <c r="G5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -846,42 +853,53 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="G6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
-        <v>9</v>
+      <c r="G8" s="11" t="s">
+        <v>45</v>
       </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
     </row>
@@ -895,9 +913,7 @@
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="G11" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="G11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="2"/>
     </row>
@@ -907,9 +923,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="G12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
@@ -917,9 +931,14 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="11" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -929,22 +948,20 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -961,7 +978,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="G17" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="12"/>
@@ -972,21 +989,22 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="G18" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:45" ht="16.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="G19" s="11"/>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
     </row>
@@ -1001,18 +1019,20 @@
     </row>
     <row r="21" spans="1:45" ht="16.5" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="G21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:45" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1023,57 +1043,72 @@
     </row>
     <row r="23" spans="1:45" ht="16.5" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="G23" s="11"/>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:45" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:45" ht="16.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:45" ht="16.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="G26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:45" ht="16.5" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="G27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1085,7 +1120,12 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="G28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1093,13 +1133,18 @@
     </row>
     <row r="29" spans="1:45" ht="16.5" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="G29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1107,7 +1152,7 @@
     </row>
     <row r="30" spans="1:45" ht="16.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1121,7 +1166,7 @@
     </row>
     <row r="31" spans="1:45" ht="16.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1135,7 +1180,7 @@
     </row>
     <row r="32" spans="1:45" ht="16.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1182,13 +1227,15 @@
     </row>
     <row r="33" spans="1:45" ht="16.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I33" s="11"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1273,12 +1320,14 @@
     </row>
     <row r="35" spans="1:45" ht="16.5" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I35" s="11"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1319,13 +1368,15 @@
     </row>
     <row r="36" spans="1:45" ht="16.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="G36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1365,12 +1416,15 @@
     </row>
     <row r="37" spans="1:45" ht="16.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="G37" s="11"/>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1411,7 +1465,7 @@
     </row>
     <row r="38" spans="1:45" ht="16.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1457,7 +1511,7 @@
     </row>
     <row r="39" spans="1:45" ht="16.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1507,7 +1561,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="H40" s="11"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1548,11 +1604,17 @@
     </row>
     <row r="41" spans="1:45" ht="16.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -1592,7 +1654,7 @@
     </row>
     <row r="42" spans="1:45" ht="16.5" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1641,7 +1703,7 @@
     </row>
     <row r="43" spans="1:45" ht="16.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1690,7 +1752,7 @@
     </row>
     <row r="44" spans="1:45" ht="16.5" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1699,7 +1761,9 @@
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -1739,7 +1803,7 @@
     </row>
     <row r="45" spans="1:45" ht="16.5" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1747,8 +1811,12 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -1835,7 +1903,7 @@
     </row>
     <row r="47" spans="1:45" ht="16.5" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1884,14 +1952,16 @@
     </row>
     <row r="48" spans="1:45" ht="16.5" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="3"/>
       <c r="J48" s="2"/>
@@ -1933,7 +2003,7 @@
     </row>
     <row r="49" spans="1:45" ht="16.5" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1986,7 +2056,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="2"/>

--- a/core/assets/levels/tut3.xlsx
+++ b/core/assets/levels/tut3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BCDFDB-D33A-4F53-A346-D8C69603C55B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE29EBB-006B-4609-A3CF-6BA17FD96D23}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Region</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Gnome</t>
   </si>
   <si>
     <t>Padding between enemies:</t>
@@ -285,12 +288,6 @@
   </si>
   <si>
     <t>Which blocks to use</t>
-  </si>
-  <si>
-    <t>gnome</t>
-  </si>
-  <si>
-    <t>rear enemy</t>
   </si>
 </sst>
 </file>
@@ -712,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -763,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -791,14 +788,9 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
+      <c r="G2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="2"/>
     </row>
@@ -808,34 +800,35 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="G3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
+      <c r="I4" s="11" t="s">
+        <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -843,7 +836,7 @@
       <c r="D5" s="9"/>
       <c r="G5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -853,53 +846,42 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="G6" s="11"/>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="E7" t="s">
-        <v>46</v>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>9</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="G8" s="11" t="s">
-        <v>45</v>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>9</v>
       </c>
-      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="G9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
     </row>
@@ -913,7 +895,9 @@
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="2"/>
     </row>
@@ -923,7 +907,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="G12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
@@ -931,14 +917,9 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="G13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
+      <c r="G13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -948,20 +929,22 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -978,7 +961,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="G17" s="4" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="12"/>
@@ -989,22 +972,21 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:45" ht="16.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="G19" s="11"/>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
     </row>
@@ -1019,20 +1001,18 @@
     </row>
     <row r="21" spans="1:45" ht="16.5" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="G21" s="11"/>
-      <c r="I21" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I21" s="11"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:45" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1043,72 +1023,57 @@
     </row>
     <row r="23" spans="1:45" ht="16.5" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="G23" s="11"/>
-      <c r="H23" t="s">
-        <v>45</v>
-      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:45" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
       <c r="G24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:45" ht="16.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="G25" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="G25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:45" ht="16.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="G26" s="11"/>
-      <c r="I26" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I26" s="11"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:45" ht="16.5" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="G27" s="11"/>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I27" s="11"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1120,12 +1085,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="G28" s="11"/>
-      <c r="H28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I28" s="11"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1133,18 +1093,13 @@
     </row>
     <row r="29" spans="1:45" ht="16.5" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="G29" s="11"/>
-      <c r="H29" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I29" s="11"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1152,7 +1107,7 @@
     </row>
     <row r="30" spans="1:45" ht="16.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1166,7 +1121,7 @@
     </row>
     <row r="31" spans="1:45" ht="16.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1180,7 +1135,7 @@
     </row>
     <row r="32" spans="1:45" ht="16.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1227,15 +1182,13 @@
     </row>
     <row r="33" spans="1:45" ht="16.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1320,14 +1273,12 @@
     </row>
     <row r="35" spans="1:45" ht="16.5" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="G35" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="G35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1368,15 +1319,13 @@
     </row>
     <row r="36" spans="1:45" ht="16.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="G36" s="11"/>
-      <c r="I36" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="I36" s="11"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1416,15 +1365,12 @@
     </row>
     <row r="37" spans="1:45" ht="16.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="G37" s="11"/>
-      <c r="H37" t="s">
-        <v>45</v>
-      </c>
       <c r="I37" s="11"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1465,7 +1411,7 @@
     </row>
     <row r="38" spans="1:45" ht="16.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1511,7 +1457,7 @@
     </row>
     <row r="39" spans="1:45" ht="16.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1561,9 +1507,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="G40" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1604,17 +1548,11 @@
     </row>
     <row r="41" spans="1:45" ht="16.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" t="s">
-        <v>45</v>
-      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -1654,7 +1592,7 @@
     </row>
     <row r="42" spans="1:45" ht="16.5" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1703,7 +1641,7 @@
     </row>
     <row r="43" spans="1:45" ht="16.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1752,7 +1690,7 @@
     </row>
     <row r="44" spans="1:45" ht="16.5" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1761,9 +1699,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="I44" s="4"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -1803,7 +1739,7 @@
     </row>
     <row r="45" spans="1:45" ht="16.5" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1811,12 +1747,8 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -1903,7 +1835,7 @@
     </row>
     <row r="47" spans="1:45" ht="16.5" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1952,16 +1884,14 @@
     </row>
     <row r="48" spans="1:45" ht="16.5" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="3"/>
       <c r="J48" s="2"/>
@@ -2003,7 +1933,7 @@
     </row>
     <row r="49" spans="1:45" ht="16.5" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2056,7 +1986,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="2"/>

--- a/core/assets/levels/tut3.xlsx
+++ b/core/assets/levels/tut3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE29EBB-006B-4609-A3CF-6BA17FD96D23}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE58059-15F3-4FF6-B3B8-8C17A0CFE973}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>Region</t>
   </si>
@@ -288,6 +288,27 @@
   </si>
   <si>
     <t>Which blocks to use</t>
+  </si>
+  <si>
+    <t>the end is near</t>
+  </si>
+  <si>
+    <t>exit sign</t>
+  </si>
+  <si>
+    <t>topiary</t>
+  </si>
+  <si>
+    <t>gnome</t>
+  </si>
+  <si>
+    <t>rear enemy</t>
+  </si>
+  <si>
+    <t>nosh requests music</t>
+  </si>
+  <si>
+    <t>ned requests music</t>
   </si>
 </sst>
 </file>
@@ -709,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -790,9 +811,14 @@
       <c r="D2" t="s">
         <v>43</v>
       </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
       <c r="G2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="9"/>
@@ -816,11 +842,17 @@
         <v>44</v>
       </c>
       <c r="D4" s="9"/>
+      <c r="F4" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>9</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
@@ -845,9 +877,14 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -871,12 +908,17 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
       <c r="C9" s="9"/>
@@ -942,6 +984,9 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
         <v>9</v>
@@ -1007,6 +1052,9 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="G21" s="11"/>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="2"/>
     </row>
@@ -1029,7 +1077,9 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="G23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:45" ht="16.5" customHeight="1">
@@ -1039,6 +1089,9 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="2"/>
@@ -1050,6 +1103,9 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="2"/>
@@ -1062,6 +1118,9 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="G26" s="11"/>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="1"/>
     </row>
@@ -1084,7 +1143,9 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
@@ -1099,6 +1160,9 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="G29" s="11"/>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1113,7 +1177,9 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="G30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1127,6 +1193,9 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="G31" s="11"/>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1140,7 +1209,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="2"/>
@@ -1278,8 +1349,13 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
       <c r="G35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1325,6 +1401,9 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="G36" s="11"/>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
       <c r="I36" s="11"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1417,6 +1496,9 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="G38" s="11"/>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1507,7 +1589,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="H40" s="11"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1553,6 +1637,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -1600,7 +1687,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -1699,7 +1788,9 @@
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -1793,8 +1884,12 @@
       <c r="D46" s="5"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -1939,7 +2034,9 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
